--- a/biology/Médecine/Terminaison_artérielle/Terminaison_artérielle.xlsx
+++ b/biology/Médecine/Terminaison_artérielle/Terminaison_artérielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Terminaison_art%C3%A9rielle</t>
+          <t>Terminaison_artérielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les terminaisons artérielles sont des petits vaisseaux se trouvent à l'extrémité des artérioles (artères préfigurant les capillaires sanguins). Elles ont un diamètre compris entre 10 et 30 µm, et jouent un rôle majeur dans l'apport de nutriments vers le réseau capillaire.
 Il existe deux types de terminaisons artérielles :
